--- a/system percentage.xlsx
+++ b/system percentage.xlsx
@@ -128,7 +128,7 @@
     <t>Upload and send image</t>
   </si>
   <si>
-    <t>Working Progress</t>
+    <t>Working Progress and View/Download Image</t>
   </si>
   <si>
     <t>Progress, order details display and deliver</t>
@@ -238,12 +238,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="d"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="d"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -526,6 +526,28 @@
     </font>
     <font>
       <b/>
+      <sz val="22"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -540,10 +562,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,67 +600,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="8" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="8" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,7 +622,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,8 +635,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,7 +694,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,19 +766,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,13 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,25 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,49 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,43 +856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,6 +1101,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1131,32 +1127,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="8" tint="0.799981688894314"/>
-      </right>
-      <top style="medium">
-        <color theme="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,11 +1158,13 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <right style="thin">
+        <color theme="8" tint="0.799981688894314"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1210,30 +1182,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="18" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="18" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1242,111 +1223,111 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="21" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="24" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="36" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1413,7 +1394,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="18" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="2" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1506,7 +1487,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="12" applyBorder="1"/>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="14" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="14" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,7 +1497,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="16" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="16" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,7 +1507,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="2" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="2" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1554,13 +1535,13 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="14" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="14" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="16" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="16" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1718,16 +1699,7 @@
     <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
     <cellStyle name="zHiddenText" xfId="50"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <u val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1963,22 +1935,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumn" dxfId="17"/>
-      <tableStyleElement type="lastColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="lastColumn" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2220,9 +2192,8 @@
     <tableColumn id="1" name="Milestone description" dataDxfId="0"/>
     <tableColumn id="4" name="Progress" totalsRowFunction="custom">
       <totalsRowFormula>SUBTOTAL(101,C12:C30)</totalsRowFormula>
-       dataDxfId="1"
     </tableColumn>
-    <tableColumn id="2" name="Missing" dataDxfId="2"/>
+    <tableColumn id="2" name="Missing" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2602,8 +2573,8 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" showRuler="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
@@ -2970,7 +2941,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d942268d-61bb-4203-b47d-617f716100b0}</x14:id>
+          <x14:id>{354933e9-10c3-4bbc-a48b-c3189ce66530}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2996,7 +2967,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d942268d-61bb-4203-b47d-617f716100b0}">
+          <x14:cfRule type="dataBar" id="{354933e9-10c3-4bbc-a48b-c3189ce66530}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9905,23 +9876,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b21666ab-61be-4d9e-a331-10121b40b2a0}</x14:id>
+          <x14:id>{901201ab-cccf-4272-bdfe-10a17859b4b2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>H$7&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9981,7 +9952,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{8a4e04cc-65a2-455a-aa3d-d048cdf78429}">
+          <x14:cfRule type="iconSet" priority="2" id="{43e23048-efa2-4019-9e53-4606ddfb0391}">
             <x14:iconSet iconSet="3Flags" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10000,7 +9971,7 @@
           <xm:sqref>D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b21666ab-61be-4d9e-a331-10121b40b2a0}">
+          <x14:cfRule type="dataBar" id="{901201ab-cccf-4272-bdfe-10a17859b4b2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -10015,7 +9986,7 @@
           <xm:sqref>D8:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{9f8c05bf-a227-4565-b57e-44f90fa98b2d}">
+          <x14:cfRule type="iconSet" priority="3" id="{dffa3386-342a-4c39-9fd8-8f568786fe09}">
             <x14:iconSet iconSet="3Stars" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16929,23 +16900,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0fb6153b-d561-4e7c-ac52-f5a4b85ae68e}</x14:id>
+          <x14:id>{e37d5542-9dfe-429f-be95-6c7b43dde746}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="5" priority="78">
+    <cfRule type="expression" dxfId="4" priority="78">
       <formula>H$7&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17005,7 +16976,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{0a3059ed-b5d9-4bf2-b8ce-01fd8caa247d}">
+          <x14:cfRule type="iconSet" priority="2" id="{b99ca8e5-17db-44f1-9b2e-c522ee024c82}">
             <x14:iconSet iconSet="3Flags" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17024,7 +16995,7 @@
           <xm:sqref>D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0fb6153b-d561-4e7c-ac52-f5a4b85ae68e}">
+          <x14:cfRule type="dataBar" id="{e37d5542-9dfe-429f-be95-6c7b43dde746}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -17039,7 +17010,7 @@
           <xm:sqref>D8:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{f8ad66dc-4f16-4989-a435-fa95db0bd007}">
+          <x14:cfRule type="iconSet" priority="3" id="{e5353fa0-a181-488b-8332-7b97f6bc9d97}">
             <x14:iconSet iconSet="3Stars" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/system percentage.xlsx
+++ b/system percentage.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\furniture-ecommerce\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDE80B1-539B-4D83-A37E-B1548E64AC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" tabRatio="415" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -29,12 +35,24 @@
     <definedName name="Today" localSheetId="1">TODAY()</definedName>
     <definedName name="Today" localSheetId="3">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>ABOUT THIS GANTT CHART</t>
   </si>
@@ -110,37 +128,19 @@
     <t>Message Page Design</t>
   </si>
   <si>
-    <t>Working progress</t>
-  </si>
-  <si>
     <t>User and Admin Profile Page</t>
   </si>
   <si>
     <t>Update Profile and Product Info</t>
   </si>
   <si>
-    <t>Update product (Admin only)</t>
-  </si>
-  <si>
     <t>Message Transaction for User and Admin</t>
-  </si>
-  <si>
-    <t>Upload and send image</t>
   </si>
   <si>
     <t>Working Progress and View/Download Image</t>
   </si>
   <si>
-    <t>Progress, order details display and deliver</t>
-  </si>
-  <si>
-    <t>Order Item</t>
-  </si>
-  <si>
     <t>User Post</t>
-  </si>
-  <si>
-    <t>Comments and image/file upload</t>
   </si>
   <si>
     <t>Customization Page / Terms of Use, Guidelines and User Privacy</t>
@@ -232,18 +232,18 @@
   <si>
     <t>To add more data, Insert new rows ABOVE this one</t>
   </si>
+  <si>
+    <t>Order Item/Payment Method</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="d"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -492,7 +492,7 @@
     </font>
     <font>
       <sz val="20"/>
-      <color theme="8" tint="0.599993896298105"/>
+      <color theme="8" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -533,35 +533,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
@@ -569,48 +540,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,28 +555,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,7 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,157 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.349986266670736"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,26 +634,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -927,10 +689,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </right>
       <top/>
       <bottom/>
@@ -938,10 +700,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.149998474074526"/>
+        <color theme="2" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-0.149998474074526"/>
+        <color theme="2" tint="-0.14996795556505021"/>
       </right>
       <top/>
       <bottom/>
@@ -949,16 +711,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.149998474074526"/>
+        <color theme="2" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-0.149998474074526"/>
+        <color theme="2" tint="-0.14996795556505021"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.149998474074526"/>
+        <color theme="2" tint="-0.14996795556505021"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.149998474074526"/>
+        <color theme="2" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,20 +729,20 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505"/>
+        <color theme="0" tint="-0.14993743705557422"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,7 +817,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
         <color theme="3"/>
@@ -1066,67 +828,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="8" tint="0.799981688894314"/>
+        <color theme="8" tint="0.79995117038483843"/>
       </right>
       <top/>
       <bottom style="thin">
         <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,24 +848,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color theme="8" tint="0.799981688894314"/>
+        <color theme="8" tint="0.79995117038483843"/>
       </right>
       <top style="medium">
         <color theme="8"/>
@@ -1167,184 +858,48 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="18" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="24" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="36" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1359,10 +914,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1374,27 +929,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1415,13 +970,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1442,10 +997,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1468,26 +1023,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="20" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="10" xfId="9" applyFill="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="12" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="14" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="14" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,18 +1048,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="16" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="16" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="2" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1522,60 +1074,60 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="20" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="10" xfId="9" applyFill="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="14" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="16" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="16" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="58" fontId="24" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1590,13 +1142,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1605,7 +1157,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1622,119 +1174,115 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="13">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Date" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Explanatory Text" xfId="7" builtinId="53"/>
+    <cellStyle name="Good" xfId="11" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="5" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="9" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="10" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Date" xfId="10"/>
-    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Note" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="Title" xfId="17" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
-    <cellStyle name="Input" xfId="22" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
-    <cellStyle name="Good" xfId="24" builtinId="26"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
-    <cellStyle name="Total" xfId="29" builtinId="25"/>
-    <cellStyle name="Bad" xfId="30" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
-    <cellStyle name="zHiddenText" xfId="50"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Title" xfId="6" builtinId="15"/>
+    <cellStyle name="zHiddenText" xfId="12" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="25">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
         <name val="Arial"/>
+        <charset val="134"/>
         <scheme val="none"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <u val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <name val="Arial"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="26"/>
+        <color rgb="FFFF0000"/>
+        <name val="Courier New"/>
+        <charset val="134"/>
         <scheme val="none"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <u val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="8" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.0499893185216834"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.599963377788629"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -1747,7 +1295,33 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.0499893185216834"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -1760,7 +1334,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.599963377788629"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -1768,6 +1342,130 @@
         <right/>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <u val="none"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39991454817346722"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39991454817346722"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1809,7 +1507,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.349986266670736"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
       <border>
@@ -1827,7 +1525,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.0499893185216834"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -1839,109 +1537,16 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.249946592608417"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.249946592608417"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399945066682943"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.0499893185216834"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399945066682943"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="5">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+    <tableStyle name="Gantt Table Style" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
       <tableStyleElement type="totalRow" dxfId="17"/>
@@ -2025,20 +1630,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$U$5" horiz="1" max="365" val="13"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$U$5" horiz="1" max="365" page="0" val="13"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$U$5" horiz="1" max="365" val="13"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$U$5" horiz="1" max="365" page="0" val="13"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2054,13 +1662,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Graphic 4" descr="Gantt Chart with solid fill"/>
+        <xdr:cNvPr id="5" name="Graphic 4" descr="Gantt Chart with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2090,7 +1704,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2106,25 +1720,47 @@
           <xdr:row>4</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14337" name="Scroll Bar 1" hidden="1">
+            <xdr:cNvPr id="14337" name="Scroll Bar 1" descr="Scrollbar for scrolling through the Gantt Timeline." hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s14337"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001380000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6238875" y="1748790"/>
-              <a:ext cx="1371600" cy="323850"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2136,7 +1772,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2152,25 +1788,47 @@
           <xdr:row>4</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6150" name="Scroll Bar 6" hidden="1">
+            <xdr:cNvPr id="6150" name="Scroll Bar 6" descr="Scrollbar for scrolling through the Gantt Timeline." hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6150"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="6238875" y="1748790"/>
-              <a:ext cx="1371600" cy="314325"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2182,26 +1840,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Milestones34" displayName="Milestones34" ref="B9:D35" totalsRowCount="1">
-  <autoFilter ref="B9:D34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones34" displayName="Milestones34" ref="B9:D35" totalsRowCount="1">
+  <autoFilter ref="B9:D34" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Milestone description" dataDxfId="0"/>
-    <tableColumn id="4" name="Progress" totalsRowFunction="custom">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress" totalsRowFunction="custom" totalsRowDxfId="1">
       <totalsRowFormula>SUBTOTAL(101,C12:C30)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Missing" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Missing" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Milestones3" displayName="Milestones3" ref="B8:F34" totalsRowShown="0">
-  <autoFilter ref="B8:F34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Milestones3" displayName="Milestones3" ref="B8:F34" totalsRowShown="0">
+  <autoFilter ref="B8:F34" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2209,19 +1867,19 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Milestone description"/>
-    <tableColumn id="3" name="Assigned to"/>
-    <tableColumn id="4" name="Progress"/>
-    <tableColumn id="5" name="Start"/>
-    <tableColumn id="6" name="Days"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Milestone description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Assigned to"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Start"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Days"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Milestones" displayName="Milestones" ref="B8:F34" totalsRowShown="0">
-  <autoFilter ref="B8:F34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Milestones" displayName="Milestones" ref="B8:F34" totalsRowShown="0">
+  <autoFilter ref="B8:F34" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2229,11 +1887,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Milestone description"/>
-    <tableColumn id="3" name="Assigned to"/>
-    <tableColumn id="4" name="Progress"/>
-    <tableColumn id="5" name="Start"/>
-    <tableColumn id="6" name="Days"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Milestone description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Assigned to"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Start"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Days"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2491,444 +2149,442 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.71428571428571" style="106" customWidth="1"/>
-    <col min="2" max="2" width="2.71428571428571" style="106" customWidth="1"/>
-    <col min="3" max="3" width="122.857142857143" style="105" customWidth="1"/>
-    <col min="4" max="4" width="2.71428571428571" style="106" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="106"/>
+    <col min="1" max="1" width="4.7109375" style="105" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="105" customWidth="1"/>
+    <col min="3" max="3" width="122.85546875" style="104" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="105" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="105"/>
   </cols>
   <sheetData>
-    <row r="1" s="104" customFormat="1" ht="25.35" customHeight="1" spans="3:3">
-      <c r="C1" s="107"/>
+    <row r="1" spans="2:4" s="103" customFormat="1" ht="25.35" customHeight="1">
+      <c r="C1" s="106"/>
     </row>
-    <row r="2" s="104" customFormat="1" ht="50.1" customHeight="1" spans="2:4">
-      <c r="B2" s="108"/>
-      <c r="C2" s="109" t="s">
+    <row r="2" spans="2:4" s="103" customFormat="1" ht="50.1" customHeight="1">
+      <c r="B2" s="107"/>
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="109"/>
     </row>
-    <row r="3" s="104" customFormat="1" ht="14.45" customHeight="1" spans="2:4">
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
+    <row r="3" spans="2:4" s="103" customFormat="1" ht="14.45" customHeight="1">
+      <c r="B3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
     </row>
-    <row r="4" s="104" customFormat="1" ht="70.15" customHeight="1" spans="2:4">
-      <c r="B4" s="113"/>
-      <c r="C4" s="114" t="s">
+    <row r="4" spans="2:4" s="103" customFormat="1" ht="70.150000000000006" customHeight="1">
+      <c r="B4" s="112"/>
+      <c r="C4" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="112"/>
     </row>
-    <row r="5" s="104" customFormat="1" ht="80.1" customHeight="1" spans="2:4">
-      <c r="B5" s="113"/>
-      <c r="C5" s="115" t="s">
+    <row r="5" spans="2:4" s="103" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="B5" s="112"/>
+      <c r="C5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="112"/>
     </row>
-    <row r="6" ht="15" spans="2:4">
-      <c r="B6" s="116"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="116"/>
+    <row r="6" spans="2:4" ht="15">
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="115"/>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="106"/>
+    <row r="7" spans="2:4">
+      <c r="C7" s="105"/>
     </row>
-    <row r="8" ht="14.45" customHeight="1" spans="3:3">
-      <c r="C8" s="106"/>
+    <row r="8" spans="2:4" ht="14.45" customHeight="1">
+      <c r="C8" s="105"/>
     </row>
-    <row r="9" s="105" customFormat="1"/>
-    <row r="10" ht="14.45" customHeight="1" spans="3:3">
-      <c r="C10" s="106"/>
+    <row r="9" spans="2:4" s="104" customFormat="1"/>
+    <row r="10" spans="2:4" ht="14.45" customHeight="1">
+      <c r="C10" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="30" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.71428571428571" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="81" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="46.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="40.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.35" customHeight="1"/>
-    <row r="2" ht="50.1" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="25.35" customHeight="1"/>
+    <row r="2" spans="1:4" ht="50.1" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="30" customHeight="1">
       <c r="A3" s="10"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="83"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="30" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="85" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="30" customHeight="1">
       <c r="A5" s="10"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="83"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="30" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" customHeight="1" spans="2:3">
-      <c r="B7" s="87" t="s">
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="B7" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="88"/>
+      <c r="C7" s="87"/>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
+    <row r="8" spans="1:4" ht="30" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="89">
         <v>44855</v>
       </c>
     </row>
-    <row r="9" ht="30.95" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="30.95" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="92" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" hidden="1" customHeight="1" spans="2:4">
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="88"/>
+    <row r="10" spans="1:4" ht="30" hidden="1" customHeight="1">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="87"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="40.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="99">
         <v>0.5</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="100" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="99">
         <v>1</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="101" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="99">
         <v>1</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="101" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="99">
         <v>1</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="101" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="99">
         <v>1</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="101" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="97"/>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C18" s="99">
+        <v>1</v>
+      </c>
+      <c r="D18" s="118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="99">
+        <v>1</v>
+      </c>
+      <c r="D19" s="118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="99">
+        <v>1</v>
+      </c>
+      <c r="D20" s="118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="99">
+        <v>1</v>
+      </c>
+      <c r="D21" s="118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="99">
+        <v>1</v>
+      </c>
+      <c r="D22" s="118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="99">
         <v>0.5</v>
       </c>
-      <c r="D18" s="101" t="s">
-        <v>24</v>
+      <c r="D23" s="118" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="100">
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="99">
         <v>1</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D24" s="118" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="100">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="101" t="s">
-        <v>27</v>
-      </c>
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="99"/>
+      <c r="D25" s="97"/>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="100">
-        <v>0.9</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>29</v>
-      </c>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="99">
+        <v>0.33</v>
+      </c>
+      <c r="D26" s="97"/>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="100">
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="99">
+        <v>1</v>
+      </c>
+      <c r="D27" s="97"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="99">
         <v>0</v>
       </c>
-      <c r="D22" s="101" t="s">
-        <v>31</v>
-      </c>
+      <c r="D28" s="97"/>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="100">
-        <v>1</v>
-      </c>
-      <c r="D23" s="98" t="s">
-        <v>18</v>
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="99">
+        <v>0.25</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="100">
-        <v>0.33</v>
-      </c>
-      <c r="D24" s="101" t="s">
-        <v>34</v>
-      </c>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="99">
+        <v>0</v>
+      </c>
+      <c r="D30" s="97"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="44.25" customHeight="1" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="98"/>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="97"/>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="100">
-        <v>0</v>
-      </c>
-      <c r="D26" s="98"/>
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="97"/>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="100">
-        <v>0</v>
-      </c>
-      <c r="D27" s="98"/>
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="99"/>
+      <c r="D33" s="97"/>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="100">
-        <v>0</v>
-      </c>
-      <c r="D28" s="98"/>
+    <row r="34" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="99"/>
+      <c r="D34" s="97"/>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="100">
-        <v>0.25</v>
-      </c>
-      <c r="D29" s="101" t="s">
-        <v>40</v>
-      </c>
+    <row r="35" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="102">
+        <f>SUBTOTAL(101,C12:C30)</f>
+        <v>0.74</v>
+      </c>
+      <c r="D35" s="87"/>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="100">
-        <v>0</v>
-      </c>
-      <c r="D30" s="98"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="98"/>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="98"/>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="98"/>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="98"/>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="103">
-        <f>SUBTOTAL(101,C12:C30)</f>
-        <v>0.528235294117647</v>
-      </c>
-      <c r="D35" s="88"/>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36"/>
       <c r="C36" s="46"/>
       <c r="D36"/>
     </row>
-    <row r="37" customHeight="1" spans="3:3">
+    <row r="37" spans="1:4" ht="30" customHeight="1">
       <c r="C37" s="49"/>
     </row>
   </sheetData>
@@ -2937,27 +2593,27 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color theme="6" tint="0.799981688894314"/>
+        <color theme="6" tint="0.79995117038483843"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{354933e9-10c3-4bbc-a48b-c3189ce66530}</x14:id>
+          <x14:id>{354933E9-10C3-4BBC-A48B-C3189CE66530}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A Scrolling Increment is in cell U5. Scrollbar is in cells H5 through M5. Increasing the scrolling increment or using the scrollbar will increment the Gantt chart timeline. &#10;An input of 0 in cell U5 resets the charting to the start of the project.&#10;" sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Create a Gantt Chart " prompt="Enter title of this project in cell B2. &#10;&#10;Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet.&#10;Continue navigating down column A to hear further instructions." sqref="A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Gantt milestone data. DO NOT enter anything in this row. &#10;&#10;To add more items, insert new rows above this one." sqref="A36"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B8 contains headers for the project schedule. H8 through BK8 has the first letter of each day of the week for the date above. All timeline charting is auto generated based on the start date and number of days entered. " sqref="A9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Enter Project information " prompt="Starting in cell B10 through cell F10, enter Milestone Description, assign the item, enter the progress of the task as a percent of completion, enter a start date and duration of task in number of days. Gantt chart will auto update. " sqref="A11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B3.&#10;&#10;Enter Project Lead Name in cell B4.&#10;&#10;Enter the Project Start date in cell C5 or allow the sample formula to find the smallest date value from the Gantt Data table.  Project Start Date: label is in cell B5." sqref="A3:A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A Scrolling Increment is in cell U5. Scrollbar is in cells H5 through M5. Increasing the scrolling increment or using the scrollbar will increment the Gantt chart timeline. _x000a_An input of 0 in cell U5 resets the charting to the start of the project._x000a_" sqref="A8" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Create a Gantt Chart " prompt="Enter title of this project in cell B2. _x000a__x000a_Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet._x000a_Continue navigating down column A to hear further instructions." sqref="A2" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Gantt milestone data. DO NOT enter anything in this row. _x000a__x000a_To add more items, insert new rows above this one." sqref="A36" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B8 contains headers for the project schedule. H8 through BK8 has the first letter of each day of the week for the date above. All timeline charting is auto generated based on the start date and number of days entered. " sqref="A9" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Enter Project information " prompt="Starting in cell B10 through cell F10, enter Milestone Description, assign the item, enter the progress of the task as a percent of completion, enter a start date and duration of task in number of days. Gantt chart will auto update. " sqref="A11" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B3._x000a__x000a_Enter Project Lead Name in cell B4._x000a__x000a_Enter the Project Start date in cell C5 or allow the sample formula to find the smallest date value from the Gantt Data table.  Project Start Date: label is in cell B5." sqref="A3:A6" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="93" fitToHeight="0" orientation="landscape"/>
-  <headerFooter scaleWithDoc="0" differentFirst="1">
+  <pageSetup scale="93" fitToHeight="0" orientation="landscape"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
@@ -2967,7 +2623,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{354933e9-10c3-4bbc-a48b-c3189ce66530}">
+          <x14:cfRule type="dataBar" id="{354933E9-10C3-4BBC-A48B-C3189CE66530}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -2988,33 +2644,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" showRuler="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.71428571428571" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="2.71428571428571" customWidth="1"/>
-    <col min="8" max="63" width="3.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="63" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.35" customHeight="1"/>
-    <row r="2" ht="50.1" customHeight="1" spans="1:63">
+    <row r="1" spans="1:63" ht="25.35" customHeight="1"/>
+    <row r="2" spans="1:63" ht="50.1" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="64" t="s">
-        <v>46</v>
+      <c r="B2" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -3078,10 +2732,10 @@
       <c r="BJ2" s="9"/>
       <c r="BK2" s="9"/>
     </row>
-    <row r="3" customHeight="1" spans="1:63">
+    <row r="3" spans="1:63" ht="30" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
@@ -3145,9 +2799,9 @@
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
     </row>
-    <row r="4" customHeight="1" spans="2:14">
+    <row r="4" spans="1:63" ht="30" customHeight="1">
       <c r="B4" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E4" s="15"/>
       <c r="I4" s="52"/>
@@ -3157,39 +2811,39 @@
       <c r="M4" s="52"/>
       <c r="N4" s="52"/>
     </row>
-    <row r="5" customHeight="1" spans="1:22">
+    <row r="5" spans="1:63" ht="30" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15">
         <f ca="1">IFERROR(IF(MIN(Milestones3[Start])=0,TODAY(),MIN(Milestones3[Start])),TODAY())</f>
-        <v>44837</v>
+        <v>44869</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="O5" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+      <c r="O5" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
       <c r="U5" s="20">
         <v>13</v>
       </c>
-      <c r="V5" s="60"/>
+      <c r="V5" s="59"/>
     </row>
-    <row r="6" customHeight="1" spans="1:63">
+    <row r="6" spans="1:63" ht="30" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -3200,557 +2854,557 @@
       </c>
       <c r="H6" s="21" t="str">
         <f ca="1">TEXT(H7,"mmmm")</f>
-        <v>October</v>
+        <v>November</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57" t="str">
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57" t="str">
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(V7,"mmmm")=O6,TEXT(V7,"mmmm")=H6),"",TEXT(V7,"mmmm"))</f>
-        <v/>
-      </c>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57" t="str">
+        <v>December</v>
+      </c>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AC7,"mmmm")=V6,TEXT(AC7,"mmmm")=O6,TEXT(AC7,"mmmm")=H6),"",TEXT(AC7,"mmmm"))</f>
-        <v>November</v>
-      </c>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="61" t="str">
+        <v/>
+      </c>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="60" t="str">
         <f ca="1">IF(OR(TEXT(AJ7,"mmmm")=AC6,TEXT(AJ7,"mmmm")=V6,TEXT(AJ7,"mmmm")=O6,TEXT(AJ7,"mmmm")=H6),"",TEXT(AJ7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57" t="str">
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AQ7,"mmmm")=AJ6,TEXT(AQ7,"mmmm")=AC6,TEXT(AQ7,"mmmm")=V6,TEXT(AQ7,"mmmm")=O6),"",TEXT(AQ7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57"/>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57" t="str">
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57" t="str">
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(BE7,"mmmm")=AX6,TEXT(BE7,"mmmm")=AQ6,TEXT(BE7,"mmmm")=AJ6,TEXT(BE7,"mmmm")=AC6),"",TEXT(BE7,"mmmm"))</f>
-        <v>December</v>
-      </c>
-      <c r="BF6" s="57"/>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
-      <c r="BK6" s="57"/>
+        <v>January</v>
+      </c>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:63">
+    <row r="7" spans="1:63" ht="18" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="22"/>
-      <c r="H7" s="66">
+      <c r="H7" s="65">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44850</v>
-      </c>
-      <c r="I7" s="76">
+        <v>44882</v>
+      </c>
+      <c r="I7" s="75">
         <f ca="1">H7+1</f>
-        <v>44851</v>
-      </c>
-      <c r="J7" s="76">
-        <f ca="1" t="shared" ref="J7:AY7" si="0">I7+1</f>
-        <v>44852</v>
-      </c>
-      <c r="K7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44853</v>
-      </c>
-      <c r="L7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44854</v>
-      </c>
-      <c r="M7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44855</v>
-      </c>
-      <c r="N7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44856</v>
-      </c>
-      <c r="O7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44857</v>
-      </c>
-      <c r="P7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44858</v>
-      </c>
-      <c r="Q7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44859</v>
-      </c>
-      <c r="R7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44860</v>
-      </c>
-      <c r="S7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44861</v>
-      </c>
-      <c r="T7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44862</v>
-      </c>
-      <c r="U7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44863</v>
-      </c>
-      <c r="V7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44864</v>
-      </c>
-      <c r="W7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44865</v>
-      </c>
-      <c r="X7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44866</v>
-      </c>
-      <c r="Y7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44867</v>
-      </c>
-      <c r="Z7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44868</v>
-      </c>
-      <c r="AA7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44869</v>
-      </c>
-      <c r="AB7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44870</v>
-      </c>
-      <c r="AC7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44871</v>
-      </c>
-      <c r="AD7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44872</v>
-      </c>
-      <c r="AE7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44873</v>
-      </c>
-      <c r="AF7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44874</v>
-      </c>
-      <c r="AG7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44875</v>
-      </c>
-      <c r="AH7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44876</v>
-      </c>
-      <c r="AI7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44877</v>
-      </c>
-      <c r="AJ7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44878</v>
-      </c>
-      <c r="AK7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44879</v>
-      </c>
-      <c r="AL7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44880</v>
-      </c>
-      <c r="AM7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44881</v>
-      </c>
-      <c r="AN7" s="76">
-        <f ca="1" t="shared" si="0"/>
-        <v>44882</v>
-      </c>
-      <c r="AO7" s="76">
-        <f ca="1" t="shared" si="0"/>
         <v>44883</v>
       </c>
-      <c r="AP7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="J7" s="75">
+        <f t="shared" ref="J7:AY7" ca="1" si="0">I7+1</f>
         <v>44884</v>
       </c>
-      <c r="AQ7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="K7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44885</v>
       </c>
-      <c r="AR7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="L7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44886</v>
       </c>
-      <c r="AS7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="M7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44887</v>
       </c>
-      <c r="AT7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="N7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44888</v>
       </c>
-      <c r="AU7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="O7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44889</v>
       </c>
-      <c r="AV7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="P7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44890</v>
       </c>
-      <c r="AW7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="Q7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44891</v>
       </c>
-      <c r="AX7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="R7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44892</v>
       </c>
-      <c r="AY7" s="76">
-        <f ca="1" t="shared" si="0"/>
+      <c r="S7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44893</v>
       </c>
-      <c r="AZ7" s="76">
-        <f ca="1" t="shared" ref="AZ7:BF7" si="1">AY7+1</f>
+      <c r="T7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44894</v>
       </c>
-      <c r="BA7" s="76">
-        <f ca="1" t="shared" si="1"/>
+      <c r="U7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44895</v>
       </c>
-      <c r="BB7" s="76">
-        <f ca="1" t="shared" si="1"/>
+      <c r="V7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44896</v>
       </c>
-      <c r="BC7" s="76">
-        <f ca="1" t="shared" si="1"/>
+      <c r="W7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44897</v>
       </c>
-      <c r="BD7" s="76">
-        <f ca="1" t="shared" si="1"/>
+      <c r="X7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44898</v>
       </c>
-      <c r="BE7" s="76">
-        <f ca="1" t="shared" si="1"/>
+      <c r="Y7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44899</v>
       </c>
-      <c r="BF7" s="76">
-        <f ca="1" t="shared" si="1"/>
+      <c r="Z7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44900</v>
       </c>
-      <c r="BG7" s="76">
-        <f ca="1" t="shared" ref="BG7:BK7" si="2">BF7+1</f>
+      <c r="AA7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44901</v>
       </c>
-      <c r="BH7" s="76">
-        <f ca="1" t="shared" si="2"/>
+      <c r="AB7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44902</v>
       </c>
-      <c r="BI7" s="76">
-        <f ca="1" t="shared" si="2"/>
+      <c r="AC7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44903</v>
       </c>
-      <c r="BJ7" s="76">
-        <f ca="1" t="shared" si="2"/>
+      <c r="AD7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44904</v>
       </c>
-      <c r="BK7" s="78">
-        <f ca="1" t="shared" si="2"/>
+      <c r="AE7" s="75">
+        <f t="shared" ca="1" si="0"/>
         <v>44905</v>
       </c>
+      <c r="AF7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44906</v>
+      </c>
+      <c r="AG7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44907</v>
+      </c>
+      <c r="AH7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44908</v>
+      </c>
+      <c r="AI7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44909</v>
+      </c>
+      <c r="AJ7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44910</v>
+      </c>
+      <c r="AK7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44911</v>
+      </c>
+      <c r="AL7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44912</v>
+      </c>
+      <c r="AM7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44913</v>
+      </c>
+      <c r="AN7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44914</v>
+      </c>
+      <c r="AO7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44915</v>
+      </c>
+      <c r="AP7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44916</v>
+      </c>
+      <c r="AQ7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44917</v>
+      </c>
+      <c r="AR7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44918</v>
+      </c>
+      <c r="AS7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44919</v>
+      </c>
+      <c r="AT7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44920</v>
+      </c>
+      <c r="AU7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44921</v>
+      </c>
+      <c r="AV7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44922</v>
+      </c>
+      <c r="AW7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44923</v>
+      </c>
+      <c r="AX7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44924</v>
+      </c>
+      <c r="AY7" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44925</v>
+      </c>
+      <c r="AZ7" s="75">
+        <f t="shared" ref="AZ7:BF7" ca="1" si="1">AY7+1</f>
+        <v>44926</v>
+      </c>
+      <c r="BA7" s="75">
+        <f t="shared" ca="1" si="1"/>
+        <v>44927</v>
+      </c>
+      <c r="BB7" s="75">
+        <f t="shared" ca="1" si="1"/>
+        <v>44928</v>
+      </c>
+      <c r="BC7" s="75">
+        <f t="shared" ca="1" si="1"/>
+        <v>44929</v>
+      </c>
+      <c r="BD7" s="75">
+        <f t="shared" ca="1" si="1"/>
+        <v>44930</v>
+      </c>
+      <c r="BE7" s="75">
+        <f t="shared" ca="1" si="1"/>
+        <v>44931</v>
+      </c>
+      <c r="BF7" s="75">
+        <f t="shared" ca="1" si="1"/>
+        <v>44932</v>
+      </c>
+      <c r="BG7" s="75">
+        <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
+        <v>44933</v>
+      </c>
+      <c r="BH7" s="75">
+        <f t="shared" ca="1" si="2"/>
+        <v>44934</v>
+      </c>
+      <c r="BI7" s="75">
+        <f t="shared" ca="1" si="2"/>
+        <v>44935</v>
+      </c>
+      <c r="BJ7" s="75">
+        <f t="shared" ca="1" si="2"/>
+        <v>44936</v>
+      </c>
+      <c r="BK7" s="77">
+        <f t="shared" ca="1" si="2"/>
+        <v>44937</v>
+      </c>
     </row>
-    <row r="8" ht="30.95" customHeight="1" spans="1:63">
+    <row r="8" spans="1:63" ht="30.95" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="68" t="s">
+      <c r="C8" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70" t="str">
+      <c r="E8" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69" t="str">
         <f ca="1">LEFT(TEXT(H7,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="I8" s="76" t="str">
+        <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="J8" s="76" t="str">
+        <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="I8" s="77" t="str">
-        <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
+      <c r="K8" s="76" t="str">
+        <f t="shared" ref="K8:BK8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="L8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="J8" s="77" t="str">
-        <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
+      <c r="M8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="K8" s="77" t="str">
-        <f ca="1" t="shared" ref="K8:BK8" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
+      <c r="N8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="L8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="O8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="M8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="P8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="N8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="Q8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="O8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="R8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="P8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="S8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="Q8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="T8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="R8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="U8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="S8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="V8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="T8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="W8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="U8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="X8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="V8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="Y8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="W8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="Z8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="X8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AA8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="Y8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AB8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="Z8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AC8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AA8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AD8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AB8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AE8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AC8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AF8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AD8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AG8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AE8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AH8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AF8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AI8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="AG8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AJ8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AH8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AK8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AI8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AL8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AJ8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AM8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AK8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AN8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AL8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AO8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AM8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AP8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="AN8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AQ8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AO8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AR8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AP8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AS8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AQ8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AT8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AR8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AU8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AS8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AV8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AT8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AW8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="AU8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AX8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AV8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AY8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AW8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AZ8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AX8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BA8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AY8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BB8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AZ8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BC8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="BA8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BD8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="BB8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BE8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="BC8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BF8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="BD8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BG8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="BE8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BH8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="BF8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BI8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="BG8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BJ8" s="76" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="BH8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="BK8" s="78" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="BI8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
-        <v>T</v>
-      </c>
-      <c r="BJ8" s="77" t="str">
-        <f ca="1" t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="BK8" s="79" t="str">
-        <f ca="1" t="shared" si="3"/>
-        <v>S</v>
-      </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="2:63">
+    <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1">
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
@@ -3813,253 +3467,253 @@
       <c r="BJ9" s="33"/>
       <c r="BK9" s="33"/>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="10" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="71"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
       <c r="H10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="11" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A11" s="10"/>
       <c r="B11" s="38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11" s="35"/>
-      <c r="D11" s="72">
+      <c r="D11" s="71">
         <v>0.25</v>
       </c>
       <c r="E11" s="40">
         <f ca="1">TODAY()</f>
-        <v>44840</v>
+        <v>44872</v>
       </c>
       <c r="F11" s="32">
         <v>3</v>
@@ -4290,16 +3944,16 @@
         <v/>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="12" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A12" s="10"/>
       <c r="B12" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="73"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="40">
         <f ca="1">TODAY()+5</f>
-        <v>44845</v>
+        <v>44877</v>
       </c>
       <c r="F12" s="32">
         <v>1</v>
@@ -4530,18 +4184,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="13" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="72">
+      <c r="D13" s="71">
         <v>0.5</v>
       </c>
       <c r="E13" s="40">
         <f ca="1">TODAY()-3</f>
-        <v>44837</v>
+        <v>44869</v>
       </c>
       <c r="F13" s="32">
         <v>10</v>
@@ -4772,16 +4426,16 @@
         <v/>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="14" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="73"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="40">
         <f ca="1">TODAY()+20</f>
-        <v>44860</v>
+        <v>44892</v>
       </c>
       <c r="F14" s="32">
         <v>1</v>
@@ -5012,18 +4666,18 @@
         <v/>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="15" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C15" s="35"/>
-      <c r="D15" s="72">
+      <c r="D15" s="71">
         <v>0.1</v>
       </c>
       <c r="E15" s="40">
         <f ca="1">TODAY()+6</f>
-        <v>44846</v>
+        <v>44878</v>
       </c>
       <c r="F15" s="32">
         <v>6</v>
@@ -5254,253 +4908,253 @@
         <v/>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="16" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="40"/>
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
       <c r="H16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="17" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A17" s="10"/>
       <c r="B17" s="38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="72">
+      <c r="D17" s="71">
         <v>0.6</v>
       </c>
       <c r="E17" s="40">
         <f ca="1">TODAY()+6</f>
-        <v>44846</v>
+        <v>44878</v>
       </c>
       <c r="F17" s="32">
         <v>13</v>
@@ -5731,18 +5385,18 @@
         <v/>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="18" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="73">
+      <c r="D18" s="72">
         <v>0.5</v>
       </c>
       <c r="E18" s="40">
         <f ca="1">TODAY()+7</f>
-        <v>44847</v>
+        <v>44879</v>
       </c>
       <c r="F18" s="32">
         <v>9</v>
@@ -5973,18 +5627,18 @@
         <v/>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="19" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="72">
+      <c r="D19" s="71">
         <v>0.33</v>
       </c>
       <c r="E19" s="40">
         <f ca="1">TODAY()+15</f>
-        <v>44855</v>
+        <v>44887</v>
       </c>
       <c r="F19" s="32">
         <v>11</v>
@@ -6215,16 +5869,16 @@
         <v/>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="20" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" s="35"/>
-      <c r="D20" s="73"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="40">
         <f ca="1">TODAY()+24</f>
-        <v>44864</v>
+        <v>44896</v>
       </c>
       <c r="F20" s="32">
         <v>1</v>
@@ -6455,16 +6109,16 @@
         <v/>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="21" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="72"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="40">
         <f ca="1">TODAY()+25</f>
-        <v>44865</v>
+        <v>44897</v>
       </c>
       <c r="F21" s="32">
         <v>24</v>
@@ -6695,251 +6349,251 @@
         <v/>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="22" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C22" s="35"/>
-      <c r="D22" s="73"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="40"/>
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
       <c r="H22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="23" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="72"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="40">
         <f ca="1">TODAY()+15</f>
-        <v>44855</v>
+        <v>44887</v>
       </c>
       <c r="F23" s="32">
         <v>4</v>
@@ -7170,16 +6824,16 @@
         <v/>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="24" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A24" s="2"/>
       <c r="B24" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="73"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="40">
         <f ca="1">TODAY()+19</f>
-        <v>44859</v>
+        <v>44891</v>
       </c>
       <c r="F24" s="32">
         <v>14</v>
@@ -7410,16 +7064,16 @@
         <v/>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="25" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="72"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="40">
         <f ca="1">TODAY()+35</f>
-        <v>44875</v>
+        <v>44907</v>
       </c>
       <c r="F25" s="32">
         <v>6</v>
@@ -7650,16 +7304,16 @@
         <v/>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="26" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C26" s="35"/>
-      <c r="D26" s="73"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="40">
         <f ca="1">TODAY()+48</f>
-        <v>44888</v>
+        <v>44920</v>
       </c>
       <c r="F26" s="32">
         <v>3</v>
@@ -7890,16 +7544,16 @@
         <v/>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="27" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="72"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="40">
         <f ca="1">TODAY()+40</f>
-        <v>44880</v>
+        <v>44912</v>
       </c>
       <c r="F27" s="32">
         <v>19</v>
@@ -8130,251 +7784,251 @@
         <v/>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="28" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="34" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="73"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="40"/>
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
       <c r="H28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="29" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="40">
         <f ca="1">TODAY()+37</f>
-        <v>44877</v>
+        <v>44909</v>
       </c>
       <c r="F29" s="32">
         <v>15</v>
@@ -8605,16 +8259,16 @@
         <v/>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="30" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C30" s="35"/>
-      <c r="D30" s="73"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="40">
         <f ca="1">TODAY()+29</f>
-        <v>44869</v>
+        <v>44901</v>
       </c>
       <c r="F30" s="32">
         <v>5</v>
@@ -8845,16 +8499,16 @@
         <v/>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="31" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" s="35"/>
-      <c r="D31" s="72"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="40">
         <f ca="1">TODAY()+80</f>
-        <v>44920</v>
+        <v>44952</v>
       </c>
       <c r="F31" s="32">
         <v>5</v>
@@ -9085,713 +8739,713 @@
         <v/>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="32" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A32" s="2"/>
       <c r="B32" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C32" s="35"/>
-      <c r="D32" s="73"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="40"/>
       <c r="F32" s="32"/>
       <c r="G32" s="36"/>
       <c r="H32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="33" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="72"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="40"/>
       <c r="F33" s="32"/>
       <c r="G33" s="36"/>
       <c r="H33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="34" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="41"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="73"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="40"/>
       <c r="F34" s="32"/>
       <c r="G34" s="36"/>
       <c r="H34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(H$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(I$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(J$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(K$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(L$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(M$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(N$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(O$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(P$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(R$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(S$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(T$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(U$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(V$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(W$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(X$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones3[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="35" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="42" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
@@ -9855,12 +9509,12 @@
       <c r="BJ35" s="45"/>
       <c r="BK35" s="45"/>
     </row>
-    <row r="36" customHeight="1" spans="3:7">
+    <row r="36" spans="1:63" ht="30" customHeight="1">
       <c r="C36" s="46"/>
       <c r="F36" s="47"/>
       <c r="G36" s="48"/>
     </row>
-    <row r="37" customHeight="1" spans="3:3">
+    <row r="37" spans="1:63" ht="30" customHeight="1">
       <c r="C37" s="49"/>
     </row>
   </sheetData>
@@ -9872,47 +9526,47 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.799981688894314"/>
+        <color theme="5" tint="0.79995117038483843"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{901201ab-cccf-4272-bdfe-10a17859b4b2}</x14:id>
+          <x14:id>{901201AB-CCCF-4272-BDFE-10A17859B4B2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>H$7&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="U5">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="U5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A Scrolling Increment is in cell U5. Scrollbar is in cells H5 through M5. Increasing the scrolling increment or using the scrollbar will increment the Gantt chart timeline. &#10;An input of 0 in cell U5 resets the charting to the start of the project.&#10;" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Create a Gantt Chart " prompt="Enter title of this project in cell B2. &#10;&#10;Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet.&#10;Continue navigating down column A to hear further instructions." sqref="A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Months for the dates in row 6 are displayed starting in cells H6 through cell BK6.  Days of the month are in row 7 starting in cell H7.  Do not modify these cells. They are auto updated based on the project start date and scrollbar increment.  &#10;" sqref="A7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B3.&#10;&#10;Enter Project Lead Name in cell B4.&#10;&#10;Enter the Project Start date in cell C5 or allow the sample formula to find the smallest date value from the Gantt Data table.  Project Start Date: label is in cell B5." sqref="A3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Enter Project information " prompt="Starting in cell B10 through cell F10, enter Milestone Description, assign the item, enter the progress of the task as a percent of completion, enter a start date and duration of task in number of days. Gantt chart will auto update. " sqref="A10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="To modify the default Milestone Marker type, enter a 0, 1, or 2, in cell C6. The corresponding marker will appear in cell D6. To change the markers, modify the conditional format for that cell and the table below.&#10;" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B8 contains headers for the project schedule. H8 through BK8 has the first letter of each day of the week for the date above. All timeline charting is auto generated based on the start date and number of days entered. " sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Gantt milestone data. DO NOT enter anything in this row. &#10;&#10;To add more items, insert new rows above this one." sqref="A35"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A Scrolling Increment is in cell U5. Scrollbar is in cells H5 through M5. Increasing the scrolling increment or using the scrollbar will increment the Gantt chart timeline. _x000a_An input of 0 in cell U5 resets the charting to the start of the project._x000a_" sqref="A5" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Create a Gantt Chart " prompt="Enter title of this project in cell B2. _x000a__x000a_Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet._x000a_Continue navigating down column A to hear further instructions." sqref="A2" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Months for the dates in row 6 are displayed starting in cells H6 through cell BK6.  Days of the month are in row 7 starting in cell H7.  Do not modify these cells. They are auto updated based on the project start date and scrollbar increment.  _x000a_" sqref="A7" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B3._x000a__x000a_Enter Project Lead Name in cell B4._x000a__x000a_Enter the Project Start date in cell C5 or allow the sample formula to find the smallest date value from the Gantt Data table.  Project Start Date: label is in cell B5." sqref="A3" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Enter Project information " prompt="Starting in cell B10 through cell F10, enter Milestone Description, assign the item, enter the progress of the task as a percent of completion, enter a start date and duration of task in number of days. Gantt chart will auto update. " sqref="A10" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="To modify the default Milestone Marker type, enter a 0, 1, or 2, in cell C6. The corresponding marker will appear in cell D6. To change the markers, modify the conditional format for that cell and the table below._x000a_" sqref="A6" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B8 contains headers for the project schedule. H8 through BK8 has the first letter of each day of the week for the date above. All timeline charting is auto generated based on the start date and number of days entered. " sqref="A8" xr:uid="{00000000-0002-0000-0200-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Gantt milestone data. DO NOT enter anything in this row. _x000a__x000a_To add more items, insert new rows above this one." sqref="A35" xr:uid="{00000000-0002-0000-0200-000008000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="46" fitToHeight="0" orientation="landscape"/>
-  <headerFooter scaleWithDoc="0" differentFirst="1">
+  <pageSetup scale="46" fitToHeight="0" orientation="landscape"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
@@ -9922,8 +9576,8 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="14337" name="Scroll Bar 1" r:id="rId3">
-              <controlPr defaultSize="0">
+            <control shapeId="14337" r:id="rId3" name="Scroll Bar 1">
+              <controlPr defaultSize="0" autoPict="0" altText="Scrollbar for scrolling through the Gantt Timeline.">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
@@ -9952,8 +9606,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{43e23048-efa2-4019-9e53-4606ddfb0391}">
-            <x14:iconSet iconSet="3Flags" custom="1" showValue="0">
+          <x14:cfRule type="dataBar" id="{901201AB-CCCF-4272-BDFE-10A17859B4B2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D8:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{43E23048-EFA2-4019-9E53-4606DDFB0391}">
+            <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -9971,23 +9640,8 @@
           <xm:sqref>D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{901201ab-cccf-4272-bdfe-10a17859b4b2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D8:D34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{dffa3386-342a-4c39-9fd8-8f568786fe09}">
-            <x14:iconSet iconSet="3Stars" custom="1" showValue="0">
+          <x14:cfRule type="iconSet" priority="3" id="{DFFA3386-342A-4C39-9FD8-8F568786FE09}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -10011,34 +9665,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.71428571428571" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="2.71428571428571" customWidth="1"/>
-    <col min="8" max="63" width="3.57142857142857" customWidth="1"/>
-    <col min="68" max="69" width="10.2857142857143"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="63" width="3.5703125" customWidth="1"/>
+    <col min="68" max="69" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.35" customHeight="1"/>
-    <row r="2" ht="50.1" customHeight="1" spans="1:63">
+    <row r="1" spans="1:63" ht="25.35" customHeight="1"/>
+    <row r="2" spans="1:63" ht="50.1" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -10102,10 +9754,10 @@
       <c r="BJ2" s="9"/>
       <c r="BK2" s="9"/>
     </row>
-    <row r="3" customHeight="1" spans="1:63">
+    <row r="3" spans="1:63" ht="30" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
@@ -10169,9 +9821,9 @@
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
     </row>
-    <row r="4" customHeight="1" spans="2:14">
+    <row r="4" spans="1:63" ht="30" customHeight="1">
       <c r="B4" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E4" s="15"/>
       <c r="I4" s="52"/>
@@ -10181,14 +9833,14 @@
       <c r="M4" s="52"/>
       <c r="N4" s="52"/>
     </row>
-    <row r="5" customHeight="1" spans="1:22">
+    <row r="5" spans="1:63" ht="30" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
-        <v>44837</v>
+        <v>44869</v>
       </c>
       <c r="E5" s="17"/>
       <c r="H5" s="18"/>
@@ -10197,23 +9849,23 @@
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
       <c r="M5" s="54"/>
-      <c r="O5" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
+      <c r="O5" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
       <c r="U5" s="20">
         <v>13</v>
       </c>
-      <c r="V5" s="60"/>
+      <c r="V5" s="59"/>
     </row>
-    <row r="6" customHeight="1" spans="1:63">
+    <row r="6" spans="1:63" ht="30" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -10224,557 +9876,557 @@
       </c>
       <c r="H6" s="21" t="str">
         <f ca="1">TEXT(H7,"mmmm")</f>
-        <v>October</v>
+        <v>November</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57" t="str">
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56" t="str">
         <f ca="1">IF(TEXT(O7,"mmmm")=H6,"",TEXT(O7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57" t="str">
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(V7,"mmmm")=O6,TEXT(V7,"mmmm")=H6),"",TEXT(V7,"mmmm"))</f>
-        <v/>
-      </c>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57" t="str">
+        <v>December</v>
+      </c>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AC7,"mmmm")=V6,TEXT(AC7,"mmmm")=O6,TEXT(AC7,"mmmm")=H6),"",TEXT(AC7,"mmmm"))</f>
-        <v>November</v>
-      </c>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="61" t="str">
+        <v/>
+      </c>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="60" t="str">
         <f ca="1">IF(OR(TEXT(AJ7,"mmmm")=AC6,TEXT(AJ7,"mmmm")=V6,TEXT(AJ7,"mmmm")=O6,TEXT(AJ7,"mmmm")=H6),"",TEXT(AJ7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57" t="str">
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AQ7,"mmmm")=AJ6,TEXT(AQ7,"mmmm")=AC6,TEXT(AQ7,"mmmm")=V6,TEXT(AQ7,"mmmm")=O6),"",TEXT(AQ7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57"/>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57" t="str">
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(AX7,"mmmm")=AQ6,TEXT(AX7,"mmmm")=AJ6,TEXT(AX7,"mmmm")=AC6,TEXT(AX7,"mmmm")=V6),"",TEXT(AX7,"mmmm"))</f>
         <v/>
       </c>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57" t="str">
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(BE7,"mmmm")=AX6,TEXT(BE7,"mmmm")=AQ6,TEXT(BE7,"mmmm")=AJ6,TEXT(BE7,"mmmm")=AC6),"",TEXT(BE7,"mmmm"))</f>
-        <v>December</v>
-      </c>
-      <c r="BF6" s="57"/>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
-      <c r="BK6" s="57"/>
+        <v>January</v>
+      </c>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:63">
+    <row r="7" spans="1:63" ht="18" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="22"/>
       <c r="H7" s="23">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44850</v>
-      </c>
-      <c r="I7" s="58">
+        <v>44882</v>
+      </c>
+      <c r="I7" s="57">
         <f ca="1">H7+1</f>
-        <v>44851</v>
-      </c>
-      <c r="J7" s="58">
-        <f ca="1" t="shared" ref="J7:AY7" si="0">I7+1</f>
-        <v>44852</v>
-      </c>
-      <c r="K7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44853</v>
-      </c>
-      <c r="L7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44854</v>
-      </c>
-      <c r="M7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44855</v>
-      </c>
-      <c r="N7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44856</v>
-      </c>
-      <c r="O7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44857</v>
-      </c>
-      <c r="P7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44858</v>
-      </c>
-      <c r="Q7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44859</v>
-      </c>
-      <c r="R7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44860</v>
-      </c>
-      <c r="S7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44861</v>
-      </c>
-      <c r="T7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44862</v>
-      </c>
-      <c r="U7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44863</v>
-      </c>
-      <c r="V7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44864</v>
-      </c>
-      <c r="W7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44865</v>
-      </c>
-      <c r="X7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44866</v>
-      </c>
-      <c r="Y7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44867</v>
-      </c>
-      <c r="Z7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44868</v>
-      </c>
-      <c r="AA7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44869</v>
-      </c>
-      <c r="AB7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44870</v>
-      </c>
-      <c r="AC7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44871</v>
-      </c>
-      <c r="AD7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44872</v>
-      </c>
-      <c r="AE7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44873</v>
-      </c>
-      <c r="AF7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44874</v>
-      </c>
-      <c r="AG7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44875</v>
-      </c>
-      <c r="AH7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44876</v>
-      </c>
-      <c r="AI7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44877</v>
-      </c>
-      <c r="AJ7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44878</v>
-      </c>
-      <c r="AK7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44879</v>
-      </c>
-      <c r="AL7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44880</v>
-      </c>
-      <c r="AM7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44881</v>
-      </c>
-      <c r="AN7" s="58">
-        <f ca="1" t="shared" si="0"/>
-        <v>44882</v>
-      </c>
-      <c r="AO7" s="58">
-        <f ca="1" t="shared" si="0"/>
         <v>44883</v>
       </c>
-      <c r="AP7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="J7" s="57">
+        <f t="shared" ref="J7:AY7" ca="1" si="0">I7+1</f>
         <v>44884</v>
       </c>
-      <c r="AQ7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="K7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44885</v>
       </c>
-      <c r="AR7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="L7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44886</v>
       </c>
-      <c r="AS7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="M7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44887</v>
       </c>
-      <c r="AT7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="N7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44888</v>
       </c>
-      <c r="AU7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="O7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44889</v>
       </c>
-      <c r="AV7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="P7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44890</v>
       </c>
-      <c r="AW7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="Q7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44891</v>
       </c>
-      <c r="AX7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="R7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44892</v>
       </c>
-      <c r="AY7" s="58">
-        <f ca="1" t="shared" si="0"/>
+      <c r="S7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44893</v>
       </c>
-      <c r="AZ7" s="58">
-        <f ca="1" t="shared" ref="AZ7:BF7" si="1">AY7+1</f>
+      <c r="T7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44894</v>
       </c>
-      <c r="BA7" s="58">
-        <f ca="1" t="shared" si="1"/>
+      <c r="U7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44895</v>
       </c>
-      <c r="BB7" s="58">
-        <f ca="1" t="shared" si="1"/>
+      <c r="V7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44896</v>
       </c>
-      <c r="BC7" s="58">
-        <f ca="1" t="shared" si="1"/>
+      <c r="W7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44897</v>
       </c>
-      <c r="BD7" s="58">
-        <f ca="1" t="shared" si="1"/>
+      <c r="X7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44898</v>
       </c>
-      <c r="BE7" s="58">
-        <f ca="1" t="shared" si="1"/>
+      <c r="Y7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44899</v>
       </c>
-      <c r="BF7" s="58">
-        <f ca="1" t="shared" si="1"/>
+      <c r="Z7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44900</v>
       </c>
-      <c r="BG7" s="58">
-        <f ca="1" t="shared" ref="BG7:BK7" si="2">BF7+1</f>
+      <c r="AA7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44901</v>
       </c>
-      <c r="BH7" s="58">
-        <f ca="1" t="shared" si="2"/>
+      <c r="AB7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44902</v>
       </c>
-      <c r="BI7" s="58">
-        <f ca="1" t="shared" si="2"/>
+      <c r="AC7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44903</v>
       </c>
-      <c r="BJ7" s="58">
-        <f ca="1" t="shared" si="2"/>
+      <c r="AD7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44904</v>
       </c>
-      <c r="BK7" s="62">
-        <f ca="1" t="shared" si="2"/>
+      <c r="AE7" s="57">
+        <f t="shared" ca="1" si="0"/>
         <v>44905</v>
       </c>
+      <c r="AF7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44906</v>
+      </c>
+      <c r="AG7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44907</v>
+      </c>
+      <c r="AH7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44908</v>
+      </c>
+      <c r="AI7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44909</v>
+      </c>
+      <c r="AJ7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44910</v>
+      </c>
+      <c r="AK7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44911</v>
+      </c>
+      <c r="AL7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44912</v>
+      </c>
+      <c r="AM7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44913</v>
+      </c>
+      <c r="AN7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44914</v>
+      </c>
+      <c r="AO7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44915</v>
+      </c>
+      <c r="AP7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44916</v>
+      </c>
+      <c r="AQ7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44917</v>
+      </c>
+      <c r="AR7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44918</v>
+      </c>
+      <c r="AS7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44919</v>
+      </c>
+      <c r="AT7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44920</v>
+      </c>
+      <c r="AU7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44921</v>
+      </c>
+      <c r="AV7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44922</v>
+      </c>
+      <c r="AW7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44923</v>
+      </c>
+      <c r="AX7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44924</v>
+      </c>
+      <c r="AY7" s="57">
+        <f t="shared" ca="1" si="0"/>
+        <v>44925</v>
+      </c>
+      <c r="AZ7" s="57">
+        <f t="shared" ref="AZ7:BF7" ca="1" si="1">AY7+1</f>
+        <v>44926</v>
+      </c>
+      <c r="BA7" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>44927</v>
+      </c>
+      <c r="BB7" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>44928</v>
+      </c>
+      <c r="BC7" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>44929</v>
+      </c>
+      <c r="BD7" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>44930</v>
+      </c>
+      <c r="BE7" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>44931</v>
+      </c>
+      <c r="BF7" s="57">
+        <f t="shared" ca="1" si="1"/>
+        <v>44932</v>
+      </c>
+      <c r="BG7" s="57">
+        <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
+        <v>44933</v>
+      </c>
+      <c r="BH7" s="57">
+        <f t="shared" ca="1" si="2"/>
+        <v>44934</v>
+      </c>
+      <c r="BI7" s="57">
+        <f t="shared" ca="1" si="2"/>
+        <v>44935</v>
+      </c>
+      <c r="BJ7" s="57">
+        <f t="shared" ca="1" si="2"/>
+        <v>44936</v>
+      </c>
+      <c r="BK7" s="61">
+        <f t="shared" ca="1" si="2"/>
+        <v>44937</v>
+      </c>
     </row>
-    <row r="8" ht="30.95" customHeight="1" spans="1:63">
+    <row r="8" spans="1:63" ht="30.95" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="27" t="str">
         <f ca="1">LEFT(TEXT(H7,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="I8" s="58" t="str">
+        <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="J8" s="58" t="str">
+        <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="I8" s="59" t="str">
-        <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
+      <c r="K8" s="58" t="str">
+        <f t="shared" ref="K8:AM8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="L8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="J8" s="59" t="str">
-        <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
+      <c r="M8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="K8" s="59" t="str">
-        <f ca="1" t="shared" ref="K8:AM8" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
+      <c r="N8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="L8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="O8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="M8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="P8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="N8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="Q8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="O8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="R8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="P8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="S8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="Q8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="T8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="R8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="U8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="S8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="V8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="T8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="W8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="U8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="X8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="V8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="Y8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="W8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="Z8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="X8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AA8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="Y8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AB8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="Z8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AC8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AA8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AD8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AB8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AE8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AC8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AF8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AD8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AG8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AE8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AH8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AF8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AI8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="AG8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AJ8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AH8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AK8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AI8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AL8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AJ8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AM8" s="58" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AK8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AN8" s="58" t="str">
+        <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="AL8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AO8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="AM8" s="59" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="AP8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="AN8" s="59" t="str">
-        <f ca="1" t="shared" ref="AN8:BK8" si="4">LEFT(TEXT(AN7,"ddd"),1)</f>
+      <c r="AQ8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="AO8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="AR8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="AP8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="AS8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="AT8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AR8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="AU8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="AS8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="AV8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="AT8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="AW8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="AU8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="AX8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="AV8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="AY8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="AW8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="AZ8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AX8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BA8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AY8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BB8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="AZ8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BC8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="BA8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BD8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="BB8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BE8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="BC8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BF8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="BD8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BG8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="BE8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BH8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="BF8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BI8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="BG8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BJ8" s="58" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="BH8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
+      <c r="BK8" s="62" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="BI8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="BJ8" s="59" t="str">
-        <f ca="1" t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="BK8" s="63" t="str">
-        <f ca="1" t="shared" si="4"/>
-        <v>S</v>
-      </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="2:63">
+    <row r="9" spans="1:63" ht="30" hidden="1" customHeight="1">
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
@@ -10837,10 +10489,10 @@
       <c r="BJ9" s="33"/>
       <c r="BK9" s="33"/>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="10" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="30"/>
@@ -10848,234 +10500,234 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
       <c r="H10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK10" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="11" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A11" s="10"/>
       <c r="B11" s="38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="39">
@@ -11083,7 +10735,7 @@
       </c>
       <c r="E11" s="40">
         <f ca="1">TODAY()</f>
-        <v>44840</v>
+        <v>44872</v>
       </c>
       <c r="F11" s="32">
         <v>3</v>
@@ -11314,16 +10966,16 @@
         <v/>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="12" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A12" s="10"/>
       <c r="B12" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="39"/>
       <c r="E12" s="40">
         <f ca="1">TODAY()+5</f>
-        <v>44845</v>
+        <v>44877</v>
       </c>
       <c r="F12" s="32">
         <v>1</v>
@@ -11554,10 +11206,10 @@
         <v/>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="13" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A13" s="2"/>
       <c r="B13" s="38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="39">
@@ -11565,7 +11217,7 @@
       </c>
       <c r="E13" s="40">
         <f ca="1">TODAY()-3</f>
-        <v>44837</v>
+        <v>44869</v>
       </c>
       <c r="F13" s="32">
         <v>10</v>
@@ -11796,16 +11448,16 @@
         <v/>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="14" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A14" s="2"/>
       <c r="B14" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="39"/>
       <c r="E14" s="40">
         <f ca="1">TODAY()+20</f>
-        <v>44860</v>
+        <v>44892</v>
       </c>
       <c r="F14" s="32">
         <v>1</v>
@@ -12036,10 +11688,10 @@
         <v/>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="15" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="39">
@@ -12047,7 +11699,7 @@
       </c>
       <c r="E15" s="40">
         <f ca="1">TODAY()+6</f>
-        <v>44846</v>
+        <v>44878</v>
       </c>
       <c r="F15" s="32">
         <v>6</v>
@@ -12278,10 +11930,10 @@
         <v/>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="16" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="39"/>
@@ -12289,234 +11941,234 @@
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
       <c r="H16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK16" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="17" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A17" s="10"/>
       <c r="B17" s="38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="39">
@@ -12524,7 +12176,7 @@
       </c>
       <c r="E17" s="40">
         <f ca="1">TODAY()+6</f>
-        <v>44846</v>
+        <v>44878</v>
       </c>
       <c r="F17" s="32">
         <v>13</v>
@@ -12755,10 +12407,10 @@
         <v/>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="18" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="39">
@@ -12766,7 +12418,7 @@
       </c>
       <c r="E18" s="40">
         <f ca="1">TODAY()+7</f>
-        <v>44847</v>
+        <v>44879</v>
       </c>
       <c r="F18" s="32">
         <v>9</v>
@@ -12997,10 +12649,10 @@
         <v/>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="19" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A19" s="2"/>
       <c r="B19" s="38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="39">
@@ -13008,7 +12660,7 @@
       </c>
       <c r="E19" s="40">
         <f ca="1">TODAY()+15</f>
-        <v>44855</v>
+        <v>44887</v>
       </c>
       <c r="F19" s="32">
         <v>11</v>
@@ -13239,16 +12891,16 @@
         <v/>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="20" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A20" s="2"/>
       <c r="B20" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="39"/>
       <c r="E20" s="40">
         <f ca="1">TODAY()+24</f>
-        <v>44864</v>
+        <v>44896</v>
       </c>
       <c r="F20" s="32">
         <v>1</v>
@@ -13479,16 +13131,16 @@
         <v/>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="21" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="39"/>
       <c r="E21" s="40">
         <f ca="1">TODAY()+25</f>
-        <v>44865</v>
+        <v>44897</v>
       </c>
       <c r="F21" s="32">
         <v>24</v>
@@ -13719,10 +13371,10 @@
         <v/>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="22" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="39"/>
@@ -13730,240 +13382,240 @@
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
       <c r="H22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK22" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="23" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A23" s="2"/>
       <c r="B23" s="38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40">
         <f ca="1">TODAY()+15</f>
-        <v>44855</v>
+        <v>44887</v>
       </c>
       <c r="F23" s="32">
         <v>4</v>
@@ -14194,16 +13846,16 @@
         <v/>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="24" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A24" s="2"/>
       <c r="B24" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="39"/>
       <c r="E24" s="40">
         <f ca="1">TODAY()+19</f>
-        <v>44859</v>
+        <v>44891</v>
       </c>
       <c r="F24" s="32">
         <v>14</v>
@@ -14434,16 +14086,16 @@
         <v/>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="25" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A25" s="2"/>
       <c r="B25" s="38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="39"/>
       <c r="E25" s="40">
         <f ca="1">TODAY()+35</f>
-        <v>44875</v>
+        <v>44907</v>
       </c>
       <c r="F25" s="32">
         <v>6</v>
@@ -14674,16 +14326,16 @@
         <v/>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="26" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A26" s="2"/>
       <c r="B26" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="39"/>
       <c r="E26" s="40">
         <f ca="1">TODAY()+48</f>
-        <v>44888</v>
+        <v>44920</v>
       </c>
       <c r="F26" s="32">
         <v>3</v>
@@ -14914,16 +14566,16 @@
         <v/>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="27" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A27" s="2"/>
       <c r="B27" s="38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="39"/>
       <c r="E27" s="40">
         <f ca="1">TODAY()+40</f>
-        <v>44880</v>
+        <v>44912</v>
       </c>
       <c r="F27" s="32">
         <v>19</v>
@@ -15154,10 +14806,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="28" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="34" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="39"/>
@@ -15165,240 +14817,240 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
       <c r="H28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK28" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E28,$F28=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="29" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A29" s="2"/>
       <c r="B29" s="38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="39"/>
       <c r="E29" s="40">
         <f ca="1">TODAY()+37</f>
-        <v>44877</v>
+        <v>44909</v>
       </c>
       <c r="F29" s="32">
         <v>15</v>
@@ -15629,16 +15281,16 @@
         <v/>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="30" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A30" s="2"/>
       <c r="B30" s="38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="39"/>
       <c r="E30" s="40">
         <f ca="1">TODAY()+29</f>
-        <v>44869</v>
+        <v>44901</v>
       </c>
       <c r="F30" s="32">
         <v>5</v>
@@ -15869,16 +15521,16 @@
         <v/>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="31" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A31" s="2"/>
       <c r="B31" s="38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="39"/>
       <c r="E31" s="40">
         <f ca="1">TODAY()+80</f>
-        <v>44920</v>
+        <v>44952</v>
       </c>
       <c r="F31" s="32">
         <v>5</v>
@@ -16109,10 +15761,10 @@
         <v/>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="32" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A32" s="2"/>
       <c r="B32" s="38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="39"/>
@@ -16120,234 +15772,234 @@
       <c r="F32" s="32"/>
       <c r="G32" s="36"/>
       <c r="H32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK32" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E32,$F32=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" outlineLevel="1" spans="1:63">
+    <row r="33" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
       <c r="A33" s="2"/>
       <c r="B33" s="38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="39"/>
@@ -16355,231 +16007,231 @@
       <c r="F33" s="32"/>
       <c r="G33" s="36"/>
       <c r="H33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK33" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E33,$F33=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="34" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="41"/>
       <c r="C34" s="35"/>
@@ -16588,234 +16240,234 @@
       <c r="F34" s="32"/>
       <c r="G34" s="36"/>
       <c r="H34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(H$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="I34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(I$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="J34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(J$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="K34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(K$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="L34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(L$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="M34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(M$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="N34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(N$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="O34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(O$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="P34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(P$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Q34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Q$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="R34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(R$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="S34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(S$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="T34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(T$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="U34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(U$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="V34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(V$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="W34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(W$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="X34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(X$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Y34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Y$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="Z34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(Z$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AA34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AB34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AC34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AD34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AE34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AF34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AG34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AH34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AI34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AJ34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AK34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AL34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AL$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AM34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AM$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AN34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AN$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AO34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AO$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AP34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AP$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AQ34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AQ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AR34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AR$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AS34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AS$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AT34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AT$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AU34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AU$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AV34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AV$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AW34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AW$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AX34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AX$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AY34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AY$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="AZ34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(AZ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BA34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BA$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BB34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BB$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BC34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BC$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BD34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BD$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BE34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BE$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BF34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BF$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BG34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BG$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BH34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BH$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BI34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BI$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BJ34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BJ$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
       <c r="BK34" s="37" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Days]])=0,"",IF(AND(BK$7=$E34,$F34=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:63">
+    <row r="35" spans="1:63" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="42" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
@@ -16879,12 +16531,12 @@
       <c r="BJ35" s="45"/>
       <c r="BK35" s="45"/>
     </row>
-    <row r="36" customHeight="1" spans="3:7">
+    <row r="36" spans="1:63" ht="30" customHeight="1">
       <c r="C36" s="46"/>
       <c r="F36" s="47"/>
       <c r="G36" s="48"/>
     </row>
-    <row r="37" customHeight="1" spans="3:3">
+    <row r="37" spans="1:63" ht="30" customHeight="1">
       <c r="C37" s="49"/>
     </row>
   </sheetData>
@@ -16896,47 +16548,47 @@
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color theme="3" tint="0.799981688894314"/>
+        <color theme="3" tint="0.79995117038483843"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e37d5542-9dfe-429f-be95-6c7b43dde746}</x14:id>
+          <x14:id>{E37D5542-9DFE-429F-BE95-6C7B43DDE746}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="4" priority="78">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>H$7&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="U5">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="U5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A Scrolling Increment is in cell U5. Scrollbar is in cells H5 through M5. Increasing the scrolling increment or using the scrollbar will increment the Gantt chart timeline. &#10;An input of 0 in cell U5 resets the charting to the start of the project.&#10;" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Create a Gantt Chart " prompt="Enter title of this project in cell B2. &#10;&#10;Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet.&#10;Continue navigating down column A to hear further instructions." sqref="A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Months for the dates in row 6 are displayed starting in cells H6 through cell BK6.  Days of the month are in row 7 starting in cell H7.  Do not modify these cells. They are auto updated based on the project start date and scrollbar increment.  &#10;" sqref="A7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B3.&#10;&#10;Enter Project Lead Name in cell B4.&#10;&#10;Enter the Project Start date in cell C5 or allow the sample formula to find the smallest date value from the Gantt Data table.  Project Start Date: label is in cell B5." sqref="A3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Enter Project information " prompt="Starting in cell B10 through cell F10, enter Milestone Description, assign the item, enter the progress of the task as a percent of completion, enter a start date and duration of task in number of days. Gantt chart will auto update. " sqref="A10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="To modify the default Milestone Marker type, enter a 0, 1, or 2, in cell C6. The corresponding marker will appear in cell D6. To change the markers, modify the conditional format for that cell and the table below.&#10;" sqref="A6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B8 contains headers for the project schedule. H8 through BK8 has the first letter of each day of the week for the date above. All timeline charting is auto generated based on the start date and number of days entered. " sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Gantt milestone data. DO NOT enter anything in this row. &#10;&#10;To add more items, insert new rows above this one." sqref="A35"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A Scrolling Increment is in cell U5. Scrollbar is in cells H5 through M5. Increasing the scrolling increment or using the scrollbar will increment the Gantt chart timeline. _x000a_An input of 0 in cell U5 resets the charting to the start of the project._x000a_" sqref="A5" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Create a Gantt Chart " prompt="Enter title of this project in cell B2. _x000a__x000a_Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet._x000a_Continue navigating down column A to hear further instructions." sqref="A2" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Months for the dates in row 6 are displayed starting in cells H6 through cell BK6.  Days of the month are in row 7 starting in cell H7.  Do not modify these cells. They are auto updated based on the project start date and scrollbar increment.  _x000a_" sqref="A7" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in cell B3._x000a__x000a_Enter Project Lead Name in cell B4._x000a__x000a_Enter the Project Start date in cell C5 or allow the sample formula to find the smallest date value from the Gantt Data table.  Project Start Date: label is in cell B5." sqref="A3" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Enter Project information " prompt="Starting in cell B10 through cell F10, enter Milestone Description, assign the item, enter the progress of the task as a percent of completion, enter a start date and duration of task in number of days. Gantt chart will auto update. " sqref="A10" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="To modify the default Milestone Marker type, enter a 0, 1, or 2, in cell C6. The corresponding marker will appear in cell D6. To change the markers, modify the conditional format for that cell and the table below._x000a_" sqref="A6" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B8 contains headers for the project schedule. H8 through BK8 has the first letter of each day of the week for the date above. All timeline charting is auto generated based on the start date and number of days entered. " sqref="A8" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Gantt milestone data. DO NOT enter anything in this row. _x000a__x000a_To add more items, insert new rows above this one." sqref="A35" xr:uid="{00000000-0002-0000-0300-000008000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="46" fitToHeight="0" orientation="landscape"/>
-  <headerFooter scaleWithDoc="0" differentFirst="1">
+  <pageSetup scale="46" fitToHeight="0" orientation="landscape"/>
+  <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
@@ -16946,8 +16598,8 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="6150" name="Scroll Bar 6" r:id="rId3">
-              <controlPr defaultSize="0">
+            <control shapeId="6150" r:id="rId3" name="Scroll Bar 6">
+              <controlPr defaultSize="0" autoPict="0" altText="Scrollbar for scrolling through the Gantt Timeline.">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
@@ -16976,8 +16628,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{b99ca8e5-17db-44f1-9b2e-c522ee024c82}">
-            <x14:iconSet iconSet="3Flags" custom="1" showValue="0">
+          <x14:cfRule type="dataBar" id="{E37D5542-9DFE-429F-BE95-6C7B43DDE746}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D8:D34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{B99CA8E5-17DB-44F1-9B2E-C522EE024C82}">
+            <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
@@ -16995,23 +16662,8 @@
           <xm:sqref>D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e37d5542-9dfe-429f-be95-6c7b43dde746}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D8:D34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{e5353fa0-a181-488b-8332-7b97f6bc9d97}">
-            <x14:iconSet iconSet="3Stars" custom="1" showValue="0">
+          <x14:cfRule type="iconSet" priority="3" id="{E5353FA0-A181-488B-8332-7B97F6BC9D97}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
